--- a/nodes_source_analyses/buildings/buildings_lighting_led_electricity.converter.xlsx
+++ b/nodes_source_analyses/buildings/buildings_lighting_led_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/buildings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="100" windowWidth="25600" windowHeight="15960" tabRatio="762"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -349,9 +357,6 @@
     <t>Output to csv</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -436,15 +441,39 @@
   <si>
     <t>http://refman.et-model.com/publications/1894</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">rake import:node NODE="nodename" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">the button to update the node attributes on ETSource. 
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -568,11 +597,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -589,6 +613,12 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1179,7 +1209,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1189,7 +1219,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1199,7 +1229,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1222,7 +1252,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1230,7 +1260,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1241,27 +1271,27 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1272,31 +1302,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1540,80 +1570,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>787400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2030,7 +1995,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2467,34 +2432,34 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="37" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="39.875" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="20"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1">
+    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="105" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="31" t="s">
         <v>11</v>
@@ -2503,7 +2468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="35" t="s">
         <v>65</v>
@@ -2512,7 +2477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="33" t="s">
         <v>13</v>
@@ -2521,29 +2486,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="80" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="81"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="82"/>
       <c r="C10" s="83"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="82" t="s">
         <v>68</v>
@@ -2552,33 +2517,33 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="82"/>
       <c r="C12" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="82"/>
       <c r="C13" s="85" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="28"/>
       <c r="B14" s="82"/>
       <c r="C14" s="83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="28"/>
       <c r="B15" s="82"/>
       <c r="C15" s="83"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
       <c r="B16" s="82" t="s">
         <v>73</v>
@@ -2587,49 +2552,49 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
       <c r="B17" s="82"/>
       <c r="C17" s="87" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="82"/>
       <c r="C18" s="88" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
       <c r="B19" s="82"/>
       <c r="C19" s="89" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="28"/>
       <c r="B20" s="90"/>
       <c r="C20" s="91" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
       <c r="B21" s="90"/>
       <c r="C21" s="92" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="B22" s="90"/>
       <c r="C22" s="93" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="90"/>
       <c r="C23" s="94" t="s">
         <v>81</v>
@@ -2638,46 +2603,41 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="18" customWidth="1"/>
     <col min="7" max="7" width="25" style="18" customWidth="1"/>
-    <col min="8" max="8" width="3.125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="42.875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="18"/>
+    <col min="8" max="8" width="3.140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="114" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C2" s="115"/>
       <c r="D2" s="115"/>
@@ -2685,7 +2645,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
       <c r="D3" s="118"/>
@@ -2693,7 +2653,7 @@
       <c r="F3" s="95"/>
       <c r="G3" s="95"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="117"/>
       <c r="C4" s="118"/>
       <c r="D4" s="118"/>
@@ -2701,7 +2661,7 @@
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="120"/>
       <c r="C5" s="121"/>
       <c r="D5" s="121"/>
@@ -2709,10 +2669,10 @@
       <c r="F5" s="95"/>
       <c r="G5" s="95"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2723,7 +2683,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="2:11" s="13" customFormat="1">
+    <row r="8" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
         <v>21</v>
@@ -2744,7 +2704,7 @@
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="2:11" s="13" customFormat="1">
+    <row r="9" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
       <c r="C9" s="3"/>
       <c r="D9" s="15"/>
@@ -2755,10 +2715,10 @@
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:11" s="13" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="13" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="3"/>
@@ -2768,13 +2728,13 @@
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="62" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="76">
         <f>'Research data'!H7</f>
@@ -2791,7 +2751,7 @@
       <c r="J11" s="45"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="43"/>
       <c r="C12" s="96"/>
       <c r="D12" s="97"/>
@@ -2803,10 +2763,10 @@
       <c r="J12" s="45"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="97"/>
       <c r="E13" s="98"/>
@@ -2817,7 +2777,7 @@
       <c r="J13" s="45"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="43"/>
       <c r="C14" s="62" t="s">
         <v>59</v>
@@ -2840,7 +2800,7 @@
       <c r="J14" s="45"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="43"/>
       <c r="C15" s="62" t="s">
         <v>60</v>
@@ -2863,7 +2823,7 @@
       <c r="J15" s="45"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="43"/>
       <c r="C16" s="50"/>
       <c r="D16" s="97"/>
@@ -2875,7 +2835,7 @@
       <c r="J16" s="45"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="43"/>
       <c r="C17" s="17" t="s">
         <v>4</v>
@@ -2889,7 +2849,7 @@
       <c r="J17" s="45"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="43"/>
       <c r="C18" s="62" t="s">
         <v>57</v>
@@ -2912,7 +2872,7 @@
       <c r="J18" s="45"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="43"/>
       <c r="C19" s="99" t="s">
         <v>56</v>
@@ -2932,7 +2892,7 @@
       <c r="J19" s="45"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="2:11" ht="20" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="47"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -2949,43 +2909,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3073" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>787400</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3000,33 +2923,33 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="2.875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="18" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="18" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="2.875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="18" customWidth="1"/>
-    <col min="9" max="9" width="3.875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="18" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="18" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="18" customWidth="1"/>
-    <col min="13" max="13" width="4.875" style="18" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="18" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="18" customWidth="1"/>
     <col min="15" max="15" width="5" style="18" customWidth="1"/>
-    <col min="16" max="16" width="9.25" style="18" customWidth="1"/>
-    <col min="17" max="17" width="2.625" style="18" customWidth="1"/>
-    <col min="18" max="18" width="9.25" style="18" customWidth="1"/>
-    <col min="19" max="19" width="2.75" style="18" customWidth="1"/>
-    <col min="20" max="20" width="31.125" style="18" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="18"/>
+    <col min="16" max="16" width="9.28515625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="2.5703125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="18" customWidth="1"/>
+    <col min="20" max="20" width="31.140625" style="18" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="16" thickBot="1"/>
-    <row r="3" spans="2:20">
+    <row r="2" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="38"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
@@ -3047,10 +2970,10 @@
       <c r="S3" s="49"/>
       <c r="T3" s="49"/>
     </row>
-    <row r="4" spans="2:20" s="13" customFormat="1">
+    <row r="4" spans="2:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3086,7 +3009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="43"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -3107,10 +3030,10 @@
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="2:20" ht="16" thickBot="1">
+    <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
       <c r="C6" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -3118,7 +3041,7 @@
       <c r="G6" s="17"/>
       <c r="T6" s="78"/>
     </row>
-    <row r="7" spans="2:20" ht="16" thickBot="1">
+    <row r="7" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="54" t="s">
         <v>17</v>
@@ -3126,7 +3049,7 @@
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="103"/>
       <c r="H7" s="76">
@@ -3151,7 +3074,7 @@
       </c>
       <c r="T7" s="78"/>
     </row>
-    <row r="8" spans="2:20" ht="16" thickBot="1">
+    <row r="8" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43"/>
       <c r="C8" s="40" t="s">
         <v>33</v>
@@ -3159,7 +3082,7 @@
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="103"/>
       <c r="H8" s="44">
@@ -3180,7 +3103,7 @@
       </c>
       <c r="T8" s="78"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="43"/>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -3189,7 +3112,7 @@
       <c r="G9" s="20"/>
       <c r="T9" s="78"/>
     </row>
-    <row r="10" spans="2:20" ht="16" thickBot="1">
+    <row r="10" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43"/>
       <c r="C10" s="17" t="s">
         <v>4</v>
@@ -3200,7 +3123,7 @@
       <c r="G10" s="17"/>
       <c r="T10" s="78"/>
     </row>
-    <row r="11" spans="2:20" ht="16" thickBot="1">
+    <row r="11" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="46" t="s">
         <v>31</v>
@@ -3237,7 +3160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="43"/>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
@@ -3253,10 +3176,10 @@
       <c r="R12" s="52"/>
       <c r="T12" s="78"/>
     </row>
-    <row r="13" spans="2:20" ht="16" thickBot="1">
+    <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3264,7 +3187,7 @@
       <c r="G13" s="17"/>
       <c r="T13" s="78"/>
     </row>
-    <row r="14" spans="2:20" ht="16" thickBot="1">
+    <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
         <v>37</v>
@@ -3272,7 +3195,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" s="104"/>
       <c r="H14" s="77">
@@ -3300,7 +3223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="16" thickBot="1">
+    <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="43"/>
       <c r="C15" s="56" t="s">
         <v>5</v>
@@ -3323,7 +3246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="43"/>
       <c r="C16" s="57"/>
       <c r="D16" s="58"/>
@@ -3338,11 +3261,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3357,22 +3275,22 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="18" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="19" customWidth="1"/>
-    <col min="9" max="9" width="33.75" style="19" customWidth="1"/>
-    <col min="10" max="10" width="53.25" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="18" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="53.28515625" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="38"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -3383,7 +3301,7 @@
       <c r="I2" s="60"/>
       <c r="J2" s="49"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -3396,14 +3314,14 @@
       <c r="I3" s="8"/>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="2:10" s="20" customFormat="1">
+    <row r="4" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="43"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="106"/>
       <c r="C5" s="5" t="s">
         <v>18</v>
@@ -3418,19 +3336,19 @@
         <v>19</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="107" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="43"/>
       <c r="C6" s="3"/>
       <c r="D6" s="20"/>
@@ -3441,7 +3359,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="43"/>
       <c r="C7" s="23"/>
       <c r="D7" s="18" t="s">
@@ -3458,13 +3376,13 @@
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J7" s="111" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="43"/>
       <c r="C8" s="46" t="s">
         <v>35</v>
@@ -3472,7 +3390,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="43"/>
       <c r="C9" s="54" t="s">
         <v>17</v>
@@ -3480,19 +3398,19 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="43"/>
       <c r="C10" s="20"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="43"/>
       <c r="C11" s="20"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="43"/>
       <c r="C12" s="46" t="s">
         <v>35</v>
@@ -3511,13 +3429,13 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="111" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="43"/>
       <c r="C13" s="54" t="s">
         <v>17</v>
@@ -3525,19 +3443,19 @@
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="43"/>
       <c r="C14" s="23"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="43"/>
       <c r="C15" s="23"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="43"/>
       <c r="C16" s="46" t="s">
         <v>35</v>
@@ -3556,13 +3474,13 @@
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J16" s="111" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="43"/>
       <c r="C17" s="54" t="s">
         <v>17</v>
@@ -3570,19 +3488,19 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="43"/>
       <c r="C18" s="23"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="43"/>
       <c r="C19" s="23"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="43"/>
       <c r="C20" s="46" t="s">
         <v>35</v>
@@ -3601,13 +3519,13 @@
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J20" s="111" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="43"/>
       <c r="C21" s="54" t="s">
         <v>17</v>
@@ -3615,19 +3533,19 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="43"/>
       <c r="C22" s="20"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="43"/>
       <c r="C23" s="23"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="43"/>
       <c r="C24" s="22" t="s">
         <v>36</v>
@@ -3648,7 +3566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
       <c r="C25" s="22" t="s">
         <v>52</v>
@@ -3661,7 +3579,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -3671,7 +3589,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
       <c r="C27" s="63" t="s">
         <v>61</v>
@@ -3690,7 +3608,7 @@
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>50</v>
@@ -3707,11 +3625,6 @@
   <ignoredErrors>
     <ignoredError sqref="F12:G12 F16:G16 F20:G20 F27:G27 G7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3726,18 +3639,18 @@
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="64"/>
+    <col min="1" max="1" width="4.140625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64"/>
     <col min="4" max="4" width="14" style="64" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="64" customWidth="1"/>
-    <col min="6" max="16384" width="10.625" style="64"/>
+    <col min="5" max="5" width="14.140625" style="64" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -3749,7 +3662,7 @@
       <c r="J2" s="66"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="2:11" s="13" customFormat="1">
+    <row r="3" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="68"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -3765,7 +3678,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="2:11" s="13" customFormat="1">
+    <row r="4" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3777,7 +3690,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="69"/>
       <c r="C5" s="70" t="s">
         <v>40</v>
@@ -3791,7 +3704,7 @@
       <c r="J5" s="70"/>
       <c r="K5" s="71"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
       <c r="D6" s="70" t="s">
@@ -3805,7 +3718,7 @@
       <c r="J6" s="70"/>
       <c r="K6" s="71"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="69"/>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
@@ -3817,7 +3730,7 @@
       <c r="J7" s="70"/>
       <c r="K7" s="71"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="69"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
@@ -3829,7 +3742,7 @@
       <c r="J8" s="70"/>
       <c r="K8" s="71"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="69"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
@@ -3841,7 +3754,7 @@
       <c r="J9" s="70"/>
       <c r="K9" s="71"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="69"/>
       <c r="C10" s="70"/>
       <c r="D10" s="70"/>
@@ -3853,7 +3766,7 @@
       <c r="J10" s="70"/>
       <c r="K10" s="71"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="69"/>
       <c r="C11" s="70"/>
       <c r="D11" s="70"/>
@@ -3865,7 +3778,7 @@
       <c r="J11" s="70"/>
       <c r="K11" s="71"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="69"/>
       <c r="C12" s="70"/>
       <c r="D12" s="70"/>
@@ -3877,7 +3790,7 @@
       <c r="J12" s="70"/>
       <c r="K12" s="71"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="69"/>
       <c r="C13" s="70"/>
       <c r="D13" s="70"/>
@@ -3889,7 +3802,7 @@
       <c r="J13" s="70"/>
       <c r="K13" s="71"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="69"/>
       <c r="C14" s="70"/>
       <c r="D14" s="70"/>
@@ -3901,7 +3814,7 @@
       <c r="J14" s="70"/>
       <c r="K14" s="71"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="69"/>
       <c r="C15" s="70"/>
       <c r="D15" s="70"/>
@@ -3913,7 +3826,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="71"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="69"/>
       <c r="C16" s="70"/>
       <c r="D16" s="70">
@@ -3927,7 +3840,7 @@
       <c r="J16" s="70"/>
       <c r="K16" s="71"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="69"/>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
@@ -3939,7 +3852,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="71"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="69"/>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -3951,7 +3864,7 @@
       <c r="J18" s="70"/>
       <c r="K18" s="71"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="69"/>
       <c r="C19" s="70"/>
       <c r="D19" s="70"/>
@@ -3963,7 +3876,7 @@
       <c r="J19" s="70"/>
       <c r="K19" s="71"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="69"/>
       <c r="C20" s="70"/>
       <c r="D20" s="70"/>
@@ -3975,7 +3888,7 @@
       <c r="J20" s="70"/>
       <c r="K20" s="71"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="69"/>
       <c r="C21" s="70"/>
       <c r="D21" s="70" t="s">
@@ -3989,7 +3902,7 @@
       <c r="J21" s="70"/>
       <c r="K21" s="71"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="69"/>
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
@@ -4001,7 +3914,7 @@
       <c r="J22" s="70"/>
       <c r="K22" s="71"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="69"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
@@ -4013,7 +3926,7 @@
       <c r="J23" s="70"/>
       <c r="K23" s="71"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="69"/>
       <c r="C24" s="70"/>
       <c r="D24" s="70"/>
@@ -4025,7 +3938,7 @@
       <c r="J24" s="70"/>
       <c r="K24" s="71"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="69"/>
       <c r="C25" s="70"/>
       <c r="D25" s="70"/>
@@ -4037,7 +3950,7 @@
       <c r="J25" s="70"/>
       <c r="K25" s="71"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="69"/>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
@@ -4049,7 +3962,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="71"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="69"/>
       <c r="C27" s="70"/>
       <c r="D27" s="70"/>
@@ -4061,7 +3974,7 @@
       <c r="J27" s="70"/>
       <c r="K27" s="71"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="69"/>
       <c r="C28" s="70"/>
       <c r="D28" s="70"/>
@@ -4073,7 +3986,7 @@
       <c r="J28" s="70"/>
       <c r="K28" s="71"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="69"/>
       <c r="C29" s="70"/>
       <c r="D29" s="70"/>
@@ -4085,7 +3998,7 @@
       <c r="J29" s="70"/>
       <c r="K29" s="71"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="69"/>
       <c r="C30" s="70"/>
       <c r="D30" s="70"/>
@@ -4097,7 +4010,7 @@
       <c r="J30" s="70"/>
       <c r="K30" s="71"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="69"/>
       <c r="C31" s="70"/>
       <c r="D31" s="70">
@@ -4111,7 +4024,7 @@
       <c r="J31" s="70"/>
       <c r="K31" s="71"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="69"/>
       <c r="C32" s="70"/>
       <c r="D32" s="70"/>
@@ -4123,7 +4036,7 @@
       <c r="J32" s="70"/>
       <c r="K32" s="71"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="69"/>
       <c r="C33" s="70"/>
       <c r="D33" s="70"/>
@@ -4135,7 +4048,7 @@
       <c r="J33" s="70"/>
       <c r="K33" s="71"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="69"/>
       <c r="C34" s="70"/>
       <c r="D34" s="70"/>
@@ -4147,7 +4060,7 @@
       <c r="J34" s="70"/>
       <c r="K34" s="71"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="69"/>
       <c r="C35" s="70"/>
       <c r="D35" s="70"/>
@@ -4159,7 +4072,7 @@
       <c r="J35" s="70"/>
       <c r="K35" s="71"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="69"/>
       <c r="C36" s="70"/>
       <c r="D36" s="70"/>
@@ -4171,7 +4084,7 @@
       <c r="J36" s="70"/>
       <c r="K36" s="71"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="69"/>
       <c r="C37" s="70"/>
       <c r="D37" s="70"/>
@@ -4183,7 +4096,7 @@
       <c r="J37" s="70"/>
       <c r="K37" s="71"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="69"/>
       <c r="C38" s="70"/>
       <c r="D38" s="70" t="s">
@@ -4197,7 +4110,7 @@
       <c r="J38" s="70"/>
       <c r="K38" s="71"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="69"/>
       <c r="C39" s="70"/>
       <c r="D39" s="70"/>
@@ -4209,7 +4122,7 @@
       <c r="J39" s="70"/>
       <c r="K39" s="71"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="69"/>
       <c r="C40" s="70"/>
       <c r="D40" s="70"/>
@@ -4221,7 +4134,7 @@
       <c r="J40" s="70"/>
       <c r="K40" s="71"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="69"/>
       <c r="C41" s="70"/>
       <c r="D41" s="70"/>
@@ -4233,7 +4146,7 @@
       <c r="J41" s="70"/>
       <c r="K41" s="71"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="69"/>
       <c r="C42" s="70"/>
       <c r="D42" s="70"/>
@@ -4245,7 +4158,7 @@
       <c r="J42" s="70"/>
       <c r="K42" s="71"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="69"/>
       <c r="C43" s="70"/>
       <c r="D43" s="70"/>
@@ -4257,7 +4170,7 @@
       <c r="J43" s="70"/>
       <c r="K43" s="71"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="69"/>
       <c r="C44" s="70"/>
       <c r="D44" s="70"/>
@@ -4269,7 +4182,7 @@
       <c r="J44" s="70"/>
       <c r="K44" s="71"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="69"/>
       <c r="C45" s="70"/>
       <c r="D45" s="70"/>
@@ -4281,7 +4194,7 @@
       <c r="J45" s="70"/>
       <c r="K45" s="71"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="69"/>
       <c r="C46" s="70"/>
       <c r="D46" s="70"/>
@@ -4293,7 +4206,7 @@
       <c r="J46" s="70"/>
       <c r="K46" s="71"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="69"/>
       <c r="C47" s="70"/>
       <c r="D47" s="70"/>
@@ -4305,7 +4218,7 @@
       <c r="J47" s="70"/>
       <c r="K47" s="71"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="69"/>
       <c r="C48" s="70"/>
       <c r="D48" s="70"/>
@@ -4317,7 +4230,7 @@
       <c r="J48" s="70"/>
       <c r="K48" s="71"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="69"/>
       <c r="C49" s="70"/>
       <c r="D49" s="70">
@@ -4331,7 +4244,7 @@
       <c r="J49" s="70"/>
       <c r="K49" s="71"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="69"/>
       <c r="C50" s="70"/>
       <c r="D50" s="70"/>
@@ -4343,7 +4256,7 @@
       <c r="J50" s="70"/>
       <c r="K50" s="71"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="69"/>
       <c r="C51" s="70"/>
       <c r="D51" s="70"/>
@@ -4355,7 +4268,7 @@
       <c r="J51" s="70"/>
       <c r="K51" s="71"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="69"/>
       <c r="C52" s="70"/>
       <c r="D52" s="70"/>
@@ -4367,7 +4280,7 @@
       <c r="J52" s="70"/>
       <c r="K52" s="71"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="69"/>
       <c r="C53" s="70"/>
       <c r="D53" s="70"/>
@@ -4379,7 +4292,7 @@
       <c r="J53" s="70"/>
       <c r="K53" s="71"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="69"/>
       <c r="C54" s="70"/>
       <c r="D54" s="70" t="s">
@@ -4393,7 +4306,7 @@
       <c r="J54" s="70"/>
       <c r="K54" s="71"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="69"/>
       <c r="C55" s="70"/>
       <c r="D55" s="70"/>
@@ -4405,7 +4318,7 @@
       <c r="J55" s="70"/>
       <c r="K55" s="71"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="69"/>
       <c r="C56" s="70"/>
       <c r="D56" s="70"/>
@@ -4417,7 +4330,7 @@
       <c r="J56" s="70"/>
       <c r="K56" s="71"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="69"/>
       <c r="C57" s="70"/>
       <c r="D57" s="70"/>
@@ -4429,7 +4342,7 @@
       <c r="J57" s="70"/>
       <c r="K57" s="71"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="69"/>
       <c r="C58" s="70"/>
       <c r="D58" s="70"/>
@@ -4441,7 +4354,7 @@
       <c r="J58" s="70"/>
       <c r="K58" s="71"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="69"/>
       <c r="C59" s="70"/>
       <c r="D59" s="70"/>
@@ -4453,7 +4366,7 @@
       <c r="J59" s="70"/>
       <c r="K59" s="71"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="69"/>
       <c r="C60" s="70"/>
       <c r="D60" s="70"/>
@@ -4465,7 +4378,7 @@
       <c r="J60" s="70"/>
       <c r="K60" s="71"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="69"/>
       <c r="C61" s="70"/>
       <c r="D61" s="70"/>
@@ -4477,7 +4390,7 @@
       <c r="J61" s="70"/>
       <c r="K61" s="71"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="69"/>
       <c r="C62" s="70"/>
       <c r="D62" s="70"/>
@@ -4489,7 +4402,7 @@
       <c r="J62" s="70"/>
       <c r="K62" s="71"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="69"/>
       <c r="C63" s="70"/>
       <c r="D63" s="70"/>
@@ -4501,7 +4414,7 @@
       <c r="J63" s="70"/>
       <c r="K63" s="71"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="69"/>
       <c r="C64" s="70"/>
       <c r="D64" s="70">
@@ -4515,7 +4428,7 @@
       <c r="J64" s="70"/>
       <c r="K64" s="71"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="69"/>
       <c r="C65" s="70"/>
       <c r="D65" s="70"/>
@@ -4527,7 +4440,7 @@
       <c r="J65" s="70"/>
       <c r="K65" s="71"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="69"/>
       <c r="C66" s="70"/>
       <c r="D66" s="70"/>
@@ -4539,7 +4452,7 @@
       <c r="J66" s="70"/>
       <c r="K66" s="71"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="69"/>
       <c r="C67" s="70"/>
       <c r="D67" s="70"/>
@@ -4551,10 +4464,10 @@
       <c r="J67" s="70"/>
       <c r="K67" s="71"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="69"/>
       <c r="C68" s="110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D68" s="70"/>
       <c r="E68" s="70"/>
@@ -4565,10 +4478,10 @@
       <c r="J68" s="70"/>
       <c r="K68" s="71"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="69"/>
       <c r="C69" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="70"/>
       <c r="E69" s="70"/>
@@ -4579,7 +4492,7 @@
       <c r="J69" s="70"/>
       <c r="K69" s="71"/>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="69"/>
       <c r="C70" s="70"/>
       <c r="D70" s="70"/>
@@ -4591,7 +4504,7 @@
       <c r="J70" s="70"/>
       <c r="K70" s="71"/>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="69"/>
       <c r="C71" s="70"/>
       <c r="D71" s="70"/>
@@ -4603,7 +4516,7 @@
       <c r="J71" s="70"/>
       <c r="K71" s="71"/>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="69"/>
       <c r="C72" s="70"/>
       <c r="D72" s="70"/>
@@ -4615,14 +4528,14 @@
       <c r="J72" s="70"/>
       <c r="K72" s="71"/>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="69"/>
       <c r="C73" s="70"/>
       <c r="D73" s="95">
         <v>15</v>
       </c>
       <c r="E73" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F73" s="70"/>
       <c r="G73" s="70"/>
@@ -4631,7 +4544,7 @@
       <c r="J73" s="70"/>
       <c r="K73" s="71"/>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="69"/>
       <c r="C74" s="70"/>
       <c r="D74" s="95"/>
@@ -4643,7 +4556,7 @@
       <c r="J74" s="70"/>
       <c r="K74" s="71"/>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="69"/>
       <c r="C75" s="70"/>
       <c r="D75" s="95"/>
@@ -4655,7 +4568,7 @@
       <c r="J75" s="70"/>
       <c r="K75" s="71"/>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="69"/>
       <c r="C76" s="70"/>
       <c r="D76" s="95"/>
@@ -4667,14 +4580,14 @@
       <c r="J76" s="70"/>
       <c r="K76" s="71"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="69"/>
       <c r="C77" s="70"/>
       <c r="D77" s="95">
         <v>65</v>
       </c>
       <c r="E77" s="95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F77" s="70"/>
       <c r="G77" s="70"/>
@@ -4683,14 +4596,14 @@
       <c r="J77" s="70"/>
       <c r="K77" s="71"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="69"/>
       <c r="C78" s="70"/>
       <c r="D78" s="95">
         <v>50.33</v>
       </c>
       <c r="E78" s="95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F78" s="70"/>
       <c r="G78" s="70"/>
@@ -4699,7 +4612,7 @@
       <c r="J78" s="70"/>
       <c r="K78" s="71"/>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="69"/>
       <c r="C79" s="70"/>
       <c r="D79" s="70"/>
@@ -4711,7 +4624,7 @@
       <c r="J79" s="70"/>
       <c r="K79" s="71"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="69"/>
       <c r="C80" s="70"/>
       <c r="D80" s="70"/>
@@ -4723,7 +4636,7 @@
       <c r="J80" s="70"/>
       <c r="K80" s="71"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="69"/>
       <c r="C81" s="70"/>
       <c r="D81" s="70"/>
@@ -4735,7 +4648,7 @@
       <c r="J81" s="70"/>
       <c r="K81" s="71"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="69"/>
       <c r="C82" s="110" t="s">
         <v>23</v>
@@ -4749,7 +4662,7 @@
       <c r="J82" s="70"/>
       <c r="K82" s="71"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="69"/>
       <c r="C83" s="70"/>
       <c r="D83" s="70"/>
@@ -4761,7 +4674,7 @@
       <c r="J83" s="70"/>
       <c r="K83" s="71"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="69"/>
       <c r="C84" s="70"/>
       <c r="D84" s="70"/>
@@ -4773,7 +4686,7 @@
       <c r="J84" s="70"/>
       <c r="K84" s="71"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="69"/>
       <c r="C85" s="70"/>
       <c r="D85" s="70"/>
@@ -4785,7 +4698,7 @@
       <c r="J85" s="70"/>
       <c r="K85" s="71"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="69"/>
       <c r="C86" s="70"/>
       <c r="D86" s="70"/>
@@ -4797,7 +4710,7 @@
       <c r="J86" s="70"/>
       <c r="K86" s="71"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="69"/>
       <c r="C87" s="70"/>
       <c r="D87" s="70"/>
@@ -4809,7 +4722,7 @@
       <c r="J87" s="70"/>
       <c r="K87" s="71"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="69"/>
       <c r="C88" s="70"/>
       <c r="D88" s="70"/>
@@ -4821,14 +4734,14 @@
       <c r="J88" s="70"/>
       <c r="K88" s="71"/>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="69"/>
       <c r="C89" s="70"/>
       <c r="D89" s="70">
         <v>40000</v>
       </c>
       <c r="E89" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F89" s="70"/>
       <c r="G89" s="70"/>
@@ -4837,7 +4750,7 @@
       <c r="J89" s="70"/>
       <c r="K89" s="71"/>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="69"/>
       <c r="C90" s="70"/>
       <c r="D90" s="70"/>
@@ -4849,7 +4762,7 @@
       <c r="J90" s="70"/>
       <c r="K90" s="71"/>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="69"/>
       <c r="C91" s="110" t="s">
         <v>24</v>
@@ -4863,7 +4776,7 @@
       <c r="J91" s="70"/>
       <c r="K91" s="71"/>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="69"/>
       <c r="C92" s="70"/>
       <c r="D92" s="70"/>
@@ -4875,7 +4788,7 @@
       <c r="J92" s="70"/>
       <c r="K92" s="71"/>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="69"/>
       <c r="C93" s="70"/>
       <c r="D93" s="70"/>
@@ -4887,7 +4800,7 @@
       <c r="J93" s="70"/>
       <c r="K93" s="71"/>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="69"/>
       <c r="C94" s="70"/>
       <c r="D94" s="70"/>
@@ -4899,7 +4812,7 @@
       <c r="J94" s="70"/>
       <c r="K94" s="71"/>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="69"/>
       <c r="C95" s="70"/>
       <c r="D95" s="70"/>
@@ -4911,7 +4824,7 @@
       <c r="J95" s="70"/>
       <c r="K95" s="71"/>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="69"/>
       <c r="C96" s="70"/>
       <c r="D96" s="70"/>
@@ -4923,14 +4836,14 @@
       <c r="J96" s="70"/>
       <c r="K96" s="71"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="69"/>
       <c r="C97" s="70"/>
       <c r="D97" s="70">
         <v>50000</v>
       </c>
       <c r="E97" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F97" s="70"/>
       <c r="G97" s="70"/>
@@ -4939,7 +4852,7 @@
       <c r="J97" s="70"/>
       <c r="K97" s="71"/>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="69"/>
       <c r="C98" s="70"/>
       <c r="D98" s="70"/>
@@ -4951,7 +4864,7 @@
       <c r="J98" s="70"/>
       <c r="K98" s="71"/>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="69"/>
       <c r="C99" s="70"/>
       <c r="D99" s="70"/>
@@ -4963,7 +4876,7 @@
       <c r="J99" s="70"/>
       <c r="K99" s="71"/>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="69"/>
       <c r="C100" s="110" t="s">
         <v>64</v>
@@ -4977,7 +4890,7 @@
       <c r="J100" s="70"/>
       <c r="K100" s="71"/>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="69"/>
       <c r="C101" s="70"/>
       <c r="D101" s="70"/>
@@ -4989,14 +4902,14 @@
       <c r="J101" s="70"/>
       <c r="K101" s="71"/>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="69"/>
       <c r="C102" s="70"/>
       <c r="D102" s="70">
         <v>40000</v>
       </c>
       <c r="E102" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F102" s="70"/>
       <c r="G102" s="70"/>
@@ -5005,7 +4918,7 @@
       <c r="J102" s="70"/>
       <c r="K102" s="71"/>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="69"/>
       <c r="C103" s="70"/>
       <c r="D103" s="70"/>
@@ -5017,7 +4930,7 @@
       <c r="J103" s="70"/>
       <c r="K103" s="71"/>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="69"/>
       <c r="C104" s="70"/>
       <c r="D104" s="70"/>
@@ -5029,7 +4942,7 @@
       <c r="J104" s="70"/>
       <c r="K104" s="71"/>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="69"/>
       <c r="C105" s="70"/>
       <c r="D105" s="70"/>
@@ -5041,7 +4954,7 @@
       <c r="J105" s="70"/>
       <c r="K105" s="71"/>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="69"/>
       <c r="C106" s="70"/>
       <c r="D106" s="70"/>
@@ -5053,7 +4966,7 @@
       <c r="J106" s="70"/>
       <c r="K106" s="71"/>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="69"/>
       <c r="C107" s="70"/>
       <c r="D107" s="70"/>
@@ -5065,7 +4978,7 @@
       <c r="J107" s="70"/>
       <c r="K107" s="71"/>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="69"/>
       <c r="C108" s="110" t="s">
         <v>39</v>
@@ -5079,7 +4992,7 @@
       <c r="J108" s="70"/>
       <c r="K108" s="71"/>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="69"/>
       <c r="C109" s="70"/>
       <c r="D109" s="70"/>
@@ -5091,7 +5004,7 @@
       <c r="J109" s="70"/>
       <c r="K109" s="71"/>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="69"/>
       <c r="C110" s="70"/>
       <c r="D110" s="70"/>
@@ -5103,7 +5016,7 @@
       <c r="J110" s="70"/>
       <c r="K110" s="71"/>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="69"/>
       <c r="C111" s="70"/>
       <c r="D111" s="70"/>
@@ -5115,7 +5028,7 @@
       <c r="J111" s="70"/>
       <c r="K111" s="71"/>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="69"/>
       <c r="C112" s="70"/>
       <c r="D112" s="70"/>
@@ -5127,14 +5040,14 @@
       <c r="J112" s="70"/>
       <c r="K112" s="71"/>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="69"/>
       <c r="C113" s="70"/>
       <c r="D113" s="70">
         <v>50000</v>
       </c>
       <c r="E113" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F113" s="70"/>
       <c r="G113" s="70"/>
@@ -5143,7 +5056,7 @@
       <c r="J113" s="70"/>
       <c r="K113" s="71"/>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="69"/>
       <c r="C114" s="70"/>
       <c r="D114" s="70"/>
@@ -5155,7 +5068,7 @@
       <c r="J114" s="70"/>
       <c r="K114" s="71"/>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="69"/>
       <c r="C115" s="70"/>
       <c r="D115" s="70"/>
@@ -5167,7 +5080,7 @@
       <c r="J115" s="70"/>
       <c r="K115" s="71"/>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="69"/>
       <c r="C116" s="70"/>
       <c r="D116" s="70"/>
@@ -5179,7 +5092,7 @@
       <c r="J116" s="70"/>
       <c r="K116" s="71"/>
     </row>
-    <row r="117" spans="2:11" ht="16" thickBot="1">
+    <row r="117" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="72"/>
       <c r="C117" s="73"/>
       <c r="D117" s="73"/>
@@ -5195,10 +5108,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>